--- a/medicine/Psychotrope/Armageddon_(bière)/Armageddon_(bière).xlsx
+++ b/medicine/Psychotrope/Armageddon_(bière)/Armageddon_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armageddon_(bi%C3%A8re)</t>
+          <t>Armageddon_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brewmeister Armageddon est une bière écossaise de fermentation haute brassée par Brewmeister (en), dans l'Aberdeenshire, en Écosse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armageddon_(bi%C3%A8re)</t>
+          <t>Armageddon_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été lancée le 3 novembre 2012 et est connue pour avoir été déclarée être la bière la plus forte du monde.
 C'est une bière brune ayant une teneur en alcool de 65 %. La forte teneur en alcool a été obtenue grâce à la méthode de brassage Eisbock. Le titre de bière la plus forte du monde a été déclaré éteint lorsque deux analyses de laboratoire ont démontré que les brasseurs ont ajouté de l'éthanol (alcool pur) à la bière pour obtenir une teneur en alcool plus élevée.
